--- a/biology/Histoire de la zoologie et de la botanique/John_William_Yerbury/John_William_Yerbury.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_William_Yerbury/John_William_Yerbury.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lieutenant-colonel John William Yerbury FRES (1847-1927) est un officier de l'armée anglaise, membre de la société entomologique de Londres à partir de 1888[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lieutenant-colonel John William Yerbury FRES (1847-1927) est un officier de l'armée anglaise, membre de la société entomologique de Londres à partir de 1888.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il a collecté en particulier les diptères dans les années 1880, durant son affectation à Trincomalee pour enrichir le Musée d'histoire naturelle de Londres[3].
-Il a aussi collecté des reptiles et des batraciens dans la région d'Aden[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Il a collecté en particulier les diptères dans les années 1880, durant son affectation à Trincomalee pour enrichir le Musée d'histoire naturelle de Londres.
+Il a aussi collecté des reptiles et des batraciens dans la région d'Aden.
 Il est l'auteur de plusieurs espèces de rongeurs du Moyen-Orient comme Gerbillus famulus, Gerbillus poecilops, Meriones rex...
 Divers taxons lui sont dédiés, dont :
 Hemidactylus yerburyi Anderson, 1895
 Lycosa yerburyi Pocock, 1901
-Simulium yerburyi Edwards[5]
+Simulium yerburyi Edwards
 Tetramorium yerbury Forel, 1902</t>
         </is>
       </c>
